--- a/ачх.xlsx
+++ b/ачх.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\учеба\2 курс\4 сем\Электроника\лаба 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\гит\eltech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D349BB-5403-43B5-8A14-1925017FD828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66037FE9-02F8-46D5-9520-D124F255C584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{5572788C-06B8-44C7-8394-B28A780DB3F3}"/>
   </bookViews>
@@ -72,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1210,6 +1211,472 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$M:$M</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.9254120000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1584.893192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995.2623149999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2511.8864319999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3162.2776600000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3981.0717060000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5011.8723360000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6309.573445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7943.2823470000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12589.25412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15848.931920000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19952.623149999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25118.864320000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31622.776600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39810.717060000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50118.723360000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63095.734450000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79432.823470000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125892.54120000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158489.3192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199526.23149999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251188.64319999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316227.766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398107.17060000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501187.23359999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630957.34450000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794328.23470000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1258925.412</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1584893.192</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1995262.3149999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2511886.432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3162277.66</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3981071.7059999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5011872.3360000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6309573.4450000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7943282.3470000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12589254.119999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15848931.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19952623.149999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25118864.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31622776.600000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39810717.060000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50118723.359999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63095734.450000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79432823.469999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125892541.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>158489319.19999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199526231.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>251188643.19999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>316227766</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>398107170.60000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>501187233.60000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>630957344.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>794328234.70000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1258925412</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1584893192</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1995262315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2511886432</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3162277660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3981071706</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5011872336</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6309573445</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7943282347</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>10000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N:$N</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>45.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.594499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.5944</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.5944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.5944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.5944</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.5944</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.594299999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.594200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.594000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.593800000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.593400000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.592700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.591700000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.590200000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.587699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45.5837</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.577399999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.567399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.551699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.526800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.487699999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.426499999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.331200000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45.1843</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44.961300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.629600000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.1509</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.4861</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.604700000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.494900000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.167499999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.651899999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.986899999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.210500000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.354799999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.4437</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.493500000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.514299999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.511500000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.4419</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.3752</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.286300000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.1724</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.025600000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.8292</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5554400000000008</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.16432</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6040199999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.81493800000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.2628200000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-5.6796600000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-9.4685000000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-13.6409</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-18.186499999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-23.072800000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-28.249300000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-33.653599999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.221499999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-44.892299999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-50.612200000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-56.331400000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-62.001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-67.574200000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-72.999600000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-78.233900000000006</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-83.247200000000007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-88.031099999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-92.598799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A61D-4FBE-9C7F-4C9C773B975E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1312,7 +1779,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$D$9:$D$11</c15:sqref>
@@ -1336,7 +1803,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$E$9:$E$11</c15:sqref>
@@ -1359,7 +1826,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-654B-4CBB-A6E3-CAC3609B0434}"/>
                   </c:ext>
@@ -1384,7 +1851,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$I$1:$J$1</c15:sqref>
@@ -1405,7 +1872,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$I$2:$J$2</c15:sqref>
@@ -1425,7 +1892,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D1C7-408E-BD76-77DDE2F2CD23}"/>
                   </c:ext>
@@ -3099,10 +3566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9608B6-2459-47E7-B3C6-BCE81D9E1AF6}">
-  <dimension ref="A1:J826"/>
+  <dimension ref="A1:Q826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3113,7 +3580,7 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -3141,8 +3608,18 @@
       <c r="J1">
         <v>2000000000</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M1">
+        <v>1000</v>
+      </c>
+      <c r="N1">
+        <v>45.594499999999996</v>
+      </c>
+      <c r="Q1">
+        <f>10^(N1/20)</f>
+        <v>190.42545413883994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1258.9254120000001</v>
       </c>
@@ -3161,8 +3638,14 @@
         <f>I2</f>
         <v>69.029199999999989</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>1258.9254120000001</v>
+      </c>
+      <c r="N2">
+        <v>45.594499999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1584.893192</v>
       </c>
@@ -3176,8 +3659,14 @@
       <c r="E3">
         <v>-20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1584.893192</v>
+      </c>
+      <c r="N3">
+        <v>45.594499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1995.2623149999999</v>
       </c>
@@ -3190,8 +3679,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1995.2623149999999</v>
+      </c>
+      <c r="N4">
+        <v>45.5944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2511.8864319999998</v>
       </c>
@@ -3205,32 +3700,56 @@
       <c r="E5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>2511.8864319999998</v>
+      </c>
+      <c r="N5">
+        <v>45.5944</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3162.2776600000002</v>
       </c>
       <c r="B6">
         <v>72.022000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>3162.2776600000002</v>
+      </c>
+      <c r="N6">
+        <v>45.5944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3981.0717060000002</v>
       </c>
       <c r="B7">
         <v>72.010800000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>3981.0717060000002</v>
+      </c>
+      <c r="N7">
+        <v>45.5944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5011.8723360000004</v>
       </c>
       <c r="B8">
         <v>71.993200000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>5011.8723360000004</v>
+      </c>
+      <c r="N8">
+        <v>45.5944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6309.573445</v>
       </c>
@@ -3244,8 +3763,14 @@
       <c r="E9">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>6309.573445</v>
+      </c>
+      <c r="N9">
+        <v>45.594299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7943.2823470000003</v>
       </c>
@@ -3259,8 +3784,14 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>7943.2823470000003</v>
+      </c>
+      <c r="N10">
+        <v>45.594200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -3274,104 +3805,182 @@
       <c r="E11">
         <v>-40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>10000</v>
+      </c>
+      <c r="N11">
+        <v>45.594000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12589.25412</v>
       </c>
       <c r="B12">
         <v>71.747699999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>12589.25412</v>
+      </c>
+      <c r="N12">
+        <v>45.593800000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15848.931920000001</v>
       </c>
       <c r="B13">
         <v>71.584800000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>15848.931920000001</v>
+      </c>
+      <c r="N13">
+        <v>45.593400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19952.623149999999</v>
       </c>
       <c r="B14">
         <v>71.3386</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>19952.623149999999</v>
+      </c>
+      <c r="N14">
+        <v>45.592700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25118.864320000001</v>
       </c>
       <c r="B15">
         <v>70.974999999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>25118.864320000001</v>
+      </c>
+      <c r="N15">
+        <v>45.591700000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31622.776600000001</v>
       </c>
       <c r="B16">
         <v>70.454499999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>31622.776600000001</v>
+      </c>
+      <c r="N16">
+        <v>45.590200000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>39810.717060000003</v>
       </c>
       <c r="B17">
         <v>69.739400000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>39810.717060000003</v>
+      </c>
+      <c r="N17">
+        <v>45.587699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>50118.723360000004</v>
       </c>
       <c r="B18">
         <v>68.803100000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>50118.723360000004</v>
+      </c>
+      <c r="N18">
+        <v>45.5837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>63095.734450000004</v>
       </c>
       <c r="B19">
         <v>67.638999999999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>63095.734450000004</v>
+      </c>
+      <c r="N19">
+        <v>45.577399999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>79432.823470000003</v>
       </c>
       <c r="B20">
         <v>66.263499999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>79432.823470000003</v>
+      </c>
+      <c r="N20">
+        <v>45.567399999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100000</v>
       </c>
       <c r="B21">
         <v>64.709299999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>100000</v>
+      </c>
+      <c r="N21">
+        <v>45.551699999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>125892.54120000001</v>
       </c>
       <c r="B22">
         <v>63.016199999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>125892.54120000001</v>
+      </c>
+      <c r="N22">
+        <v>45.526800000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>158489.3192</v>
       </c>
       <c r="B23">
         <v>61.221600000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>158489.3192</v>
+      </c>
+      <c r="N23">
+        <v>45.487699999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>199526.23149999999</v>
       </c>
@@ -3381,333 +3990,633 @@
       <c r="J24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>199526.23149999999</v>
+      </c>
+      <c r="N24">
+        <v>45.426499999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>251188.64319999999</v>
       </c>
       <c r="B25">
         <v>57.4437</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>251188.64319999999</v>
+      </c>
+      <c r="N25">
+        <v>45.331200000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>316227.766</v>
       </c>
       <c r="B26">
         <v>55.499699999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>316227.766</v>
+      </c>
+      <c r="N26">
+        <v>45.1843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>398107.17060000001</v>
       </c>
       <c r="B27">
         <v>53.535400000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>398107.17060000001</v>
+      </c>
+      <c r="N27">
+        <v>44.961300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>501187.23359999998</v>
       </c>
       <c r="B28">
         <v>51.558100000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>501187.23359999998</v>
+      </c>
+      <c r="N28">
+        <v>44.629600000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>630957.34450000001</v>
       </c>
       <c r="B29">
         <v>49.572600000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>630957.34450000001</v>
+      </c>
+      <c r="N29">
+        <v>44.1509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>794328.23470000003</v>
       </c>
       <c r="B30">
         <v>47.581899999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>794328.23470000003</v>
+      </c>
+      <c r="N30">
+        <v>43.4861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1000000</v>
       </c>
       <c r="B31">
         <v>45.587899999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1000000</v>
+      </c>
+      <c r="N31">
+        <v>42.604700000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1258925.412</v>
       </c>
       <c r="B32">
         <v>43.591900000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1258925.412</v>
+      </c>
+      <c r="N32">
+        <v>41.494900000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1584893.192</v>
       </c>
       <c r="B33">
         <v>41.594900000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>1584893.192</v>
+      </c>
+      <c r="N33">
+        <v>40.167499999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1995262.3149999999</v>
       </c>
       <c r="B34">
         <v>39.597299999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>1995262.3149999999</v>
+      </c>
+      <c r="N34">
+        <v>38.651899999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2511886.432</v>
       </c>
       <c r="B35">
         <v>37.599899999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>2511886.432</v>
+      </c>
+      <c r="N35">
+        <v>36.986899999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3162277.66</v>
       </c>
       <c r="B36">
         <v>35.603000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>3162277.66</v>
+      </c>
+      <c r="N36">
+        <v>35.210500000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3981071.7059999998</v>
       </c>
       <c r="B37">
         <v>33.607300000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>3981071.7059999998</v>
+      </c>
+      <c r="N37">
+        <v>33.354799999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5011872.3360000001</v>
       </c>
       <c r="B38">
         <v>31.613700000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>5011872.3360000001</v>
+      </c>
+      <c r="N38">
+        <v>31.4437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6309573.4450000003</v>
       </c>
       <c r="B39">
         <v>29.623100000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>6309573.4450000003</v>
+      </c>
+      <c r="N39">
+        <v>29.493500000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7943282.3470000001</v>
       </c>
       <c r="B40">
         <v>27.637</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>7943282.3470000001</v>
+      </c>
+      <c r="N40">
+        <v>27.514299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10000000</v>
       </c>
       <c r="B41">
         <v>25.656700000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>10000000</v>
+      </c>
+      <c r="N41">
+        <v>25.511500000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12589254.119999999</v>
       </c>
       <c r="B42">
         <v>23.683499999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>12589254.119999999</v>
+      </c>
+      <c r="N42">
+        <v>23.487200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>15848931.92</v>
       </c>
       <c r="B43">
         <v>21.717199999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>15848931.92</v>
+      </c>
+      <c r="N43">
+        <v>21.4419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>19952623.149999999</v>
       </c>
       <c r="B44">
         <v>19.756</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>19952623.149999999</v>
+      </c>
+      <c r="N44">
+        <v>19.3752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25118864.32</v>
       </c>
       <c r="B45">
         <v>17.795400000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>25118864.32</v>
+      </c>
+      <c r="N45">
+        <v>17.286300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>31622776.600000001</v>
       </c>
       <c r="B46">
         <v>15.8293</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M46">
+        <v>31622776.600000001</v>
+      </c>
+      <c r="N46">
+        <v>15.1724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>39810717.060000002</v>
       </c>
       <c r="B47">
         <v>13.8513</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M47">
+        <v>39810717.060000002</v>
+      </c>
+      <c r="N47">
+        <v>13.025600000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>50118723.359999999</v>
       </c>
       <c r="B48">
         <v>11.8559</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <v>50118723.359999999</v>
+      </c>
+      <c r="N48">
+        <v>10.8292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>63095734.450000003</v>
       </c>
       <c r="B49">
         <v>9.8372600000000006</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>63095734.450000003</v>
+      </c>
+      <c r="N49">
+        <v>8.5554400000000008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>79432823.469999999</v>
       </c>
       <c r="B50">
         <v>7.7881600000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>79432823.469999999</v>
+      </c>
+      <c r="N50">
+        <v>6.16432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100000000</v>
       </c>
       <c r="B51">
         <v>5.6974600000000004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <v>100000000</v>
+      </c>
+      <c r="N51">
+        <v>3.6040199999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>125892541.2</v>
       </c>
       <c r="B52">
         <v>3.5482</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>125892541.2</v>
+      </c>
+      <c r="N52">
+        <v>0.81493800000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>158489319.19999999</v>
       </c>
       <c r="B53">
         <v>1.3158300000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <v>158489319.19999999</v>
+      </c>
+      <c r="N53">
+        <v>-2.2628200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>199526231.5</v>
       </c>
       <c r="B54">
         <v>-1.0321</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <v>199526231.5</v>
+      </c>
+      <c r="N54">
+        <v>-5.6796600000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>251188643.19999999</v>
       </c>
       <c r="B55">
         <v>-3.5337299999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>251188643.19999999</v>
+      </c>
+      <c r="N55">
+        <v>-9.4685000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>316227766</v>
       </c>
       <c r="B56">
         <v>-6.2264499999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <v>316227766</v>
+      </c>
+      <c r="N56">
+        <v>-13.6409</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>398107170.60000002</v>
       </c>
       <c r="B57">
         <v>-9.1370699999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>398107170.60000002</v>
+      </c>
+      <c r="N57">
+        <v>-18.186499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>501187233.60000002</v>
       </c>
       <c r="B58">
         <v>-12.272399999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>501187233.60000002</v>
+      </c>
+      <c r="N58">
+        <v>-23.072800000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>630957344.5</v>
       </c>
       <c r="B59">
         <v>-15.6157</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>630957344.5</v>
+      </c>
+      <c r="N59">
+        <v>-28.249300000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>794328234.70000005</v>
       </c>
       <c r="B60">
         <v>-19.131799999999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M60">
+        <v>794328234.70000005</v>
+      </c>
+      <c r="N60">
+        <v>-33.653599999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1000000000</v>
       </c>
       <c r="B61">
         <v>-22.776199999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>1000000000</v>
+      </c>
+      <c r="N61">
+        <v>-39.221499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1258925412</v>
       </c>
       <c r="B62">
         <v>-26.5029</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1258925412</v>
+      </c>
+      <c r="N62">
+        <v>-44.892299999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1584893192</v>
       </c>
       <c r="B63">
         <v>-30.268699999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1584893192</v>
+      </c>
+      <c r="N63">
+        <v>-50.612200000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1995262315</v>
       </c>
       <c r="B64">
         <v>-34.032400000000003</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>1995262315</v>
+      </c>
+      <c r="N64">
+        <v>-56.331400000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2511886432</v>
       </c>
       <c r="B65">
         <v>-37.752899999999997</v>
+      </c>
+      <c r="M65">
+        <v>2511886432</v>
+      </c>
+      <c r="N65">
+        <v>-62.001800000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M66">
+        <v>3162277660</v>
+      </c>
+      <c r="N66">
+        <v>-67.574200000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M67">
+        <v>3981071706</v>
+      </c>
+      <c r="N67">
+        <v>-72.999600000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M68">
+        <v>5011872336</v>
+      </c>
+      <c r="N68">
+        <v>-78.233900000000006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M69">
+        <v>6309573445</v>
+      </c>
+      <c r="N69">
+        <v>-83.247200000000007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M70">
+        <v>7943282347</v>
+      </c>
+      <c r="N70">
+        <v>-88.031099999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M71" s="2">
+        <v>10000000000</v>
+      </c>
+      <c r="N71">
+        <v>-92.598799999999997</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.3">

--- a/ачх.xlsx
+++ b/ачх.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\гит\eltech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66037FE9-02F8-46D5-9520-D124F255C584}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFE65A-B3E9-48DF-8CB7-FE8C65EFB564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{5572788C-06B8-44C7-8394-B28A780DB3F3}"/>
   </bookViews>
@@ -782,436 +782,6 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A:$A</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1258.9254120000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1584.893192</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1995.2623149999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2511.8864319999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3162.2776600000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3981.0717060000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5011.8723360000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6309.573445</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7943.2823470000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12589.25412</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15848.931920000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19952.623149999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25118.864320000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31622.776600000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39810.717060000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>50118.723360000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>63095.734450000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>79432.823470000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>125892.54120000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>158489.3192</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>199526.23149999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>251188.64319999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>316227.766</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>398107.17060000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>501187.23359999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>630957.34450000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>794328.23470000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1258925.412</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1584893.192</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1995262.3149999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2511886.432</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3162277.66</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3981071.7059999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5011872.3360000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6309573.4450000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7943282.3470000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12589254.119999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>15848931.92</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19952623.149999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>25118864.32</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>31622776.600000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39810717.060000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50118723.359999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>63095734.450000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>79432823.469999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>125892541.2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>158489319.19999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>199526231.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>251188643.19999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>316227766</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>398107170.60000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>501187233.60000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>630957344.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>794328234.70000005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1258925412</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1584893192</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1995262315</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2511886432</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B:$B</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1048576"/>
-                <c:pt idx="0">
-                  <c:v>72.039199999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72.037999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72.036299999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.033500000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72.028999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.022000000000006</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>72.010800000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>71.993200000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>71.965500000000006</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>71.921899999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71.853700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>71.747699999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.584800000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71.3386</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70.974999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>70.454499999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69.739400000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>68.803100000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>67.638999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>66.263499999999993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>64.709299999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63.016199999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>61.221600000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>59.356400000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>57.4437</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55.499699999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>53.535400000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>51.558100000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49.572600000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>47.581899999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45.587899999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43.591900000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>41.594900000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39.597299999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>37.599899999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.603000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>33.607300000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>31.613700000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>29.623100000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>27.637</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.656700000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>23.683499999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21.717199999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19.756</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>17.795400000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>15.8293</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>13.8513</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>11.8559</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.8372600000000006</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.7881600000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.6974600000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.5482</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.3158300000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-1.0321</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-3.5337299999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-6.2264499999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-9.1370699999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-12.272399999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-15.6157</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-19.131799999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-22.776199999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-26.5029</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-30.268699999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-34.032400000000003</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-37.752899999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6419-4933-8516-FDC2BEBCE82B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:spPr>
@@ -1677,6 +1247,58 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$S$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42.584499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.584499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5B34-4CF2-A231-6E93865B7E0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1689,6 +1311,450 @@
         <c:axId val="169325487"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$A:$A</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1258.9254120000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1584.893192</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1995.2623149999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2511.8864319999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3162.2776600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3981.0717060000002</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5011.8723360000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6309.573445</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7943.2823470000003</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12589.25412</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>15848.931920000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>19952.623149999999</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>25118.864320000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>31622.776600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>39810.717060000003</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>50118.723360000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>63095.734450000004</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>79432.823470000003</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>125892.54120000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>158489.3192</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>199526.23149999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>251188.64319999999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>316227.766</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>398107.17060000001</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>501187.23359999998</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>630957.34450000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>794328.23470000003</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1258925.412</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1584893.192</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1995262.3149999999</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2511886.432</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3162277.66</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>3981071.7059999998</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5011872.3360000001</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>6309573.4450000003</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7943282.3470000001</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>12589254.119999999</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>15848931.92</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>19952623.149999999</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>25118864.32</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>31622776.600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>39810717.060000002</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>50118723.359999999</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>63095734.450000003</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>79432823.469999999</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>100000000</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>125892541.2</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>158489319.19999999</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>199526231.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>251188643.19999999</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>316227766</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>398107170.60000002</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>501187233.60000002</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>630957344.5</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>794328234.70000005</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1000000000</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1258925412</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1584893192</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1995262315</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2511886432</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B:$B</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>72.039199999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>72.037999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>72.036299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>72.033500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72.028999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>72.022000000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>72.010800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>71.993200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>71.965500000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>71.921899999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>71.853700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>71.747699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>71.584800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>71.3386</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>70.974999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>70.454499999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>69.739400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>68.803100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>67.638999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>66.263499999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>64.709299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>63.016199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>61.221600000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>59.356400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>57.4437</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>55.499699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>53.535400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>51.558100000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>49.572600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>47.581899999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>45.587899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>43.591900000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>41.594900000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>39.597299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>37.599899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35.603000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>33.607300000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>31.613700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>29.623100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>27.637</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>25.656700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>23.683499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>21.717199999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>19.756</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>17.795400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>15.8293</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>13.8513</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>11.8559</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>9.8372600000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>7.7881600000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>5.6974600000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>3.5482</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.3158300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>-1.0321</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>-3.5337299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>-6.2264499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>-9.1370699999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>-12.272399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>-15.6157</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-19.131799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>-22.776199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>-26.5029</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>-30.268699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>-34.032400000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>-37.752899999999997</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6419-4933-8516-FDC2BEBCE82B}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -1707,8 +1773,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$D$3:$D$5</c15:sqref>
                         </c15:formulaRef>
@@ -1731,8 +1797,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$E$3:$E$5</c15:sqref>
                         </c15:formulaRef>
@@ -1754,7 +1820,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-654B-4CBB-A6E3-CAC3609B0434}"/>
                   </c:ext>
@@ -3566,10 +3632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9608B6-2459-47E7-B3C6-BCE81D9E1AF6}">
-  <dimension ref="A1:Q826"/>
+  <dimension ref="A1:T826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3578,9 +3644,11 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1000</v>
       </c>
@@ -3619,7 +3687,7 @@
         <v>190.42545413883994</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1258.9254120000001</v>
       </c>
@@ -3645,7 +3713,7 @@
         <v>45.594499999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1584.893192</v>
       </c>
@@ -3666,7 +3734,7 @@
         <v>45.594499999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1995.2623149999999</v>
       </c>
@@ -3685,8 +3753,15 @@
       <c r="N4">
         <v>45.5944</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <f>2000000000</f>
+        <v>2000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2511.8864319999998</v>
       </c>
@@ -3706,8 +3781,16 @@
       <c r="N5">
         <v>45.5944</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <f>N1-3.01</f>
+        <v>42.584499999999998</v>
+      </c>
+      <c r="T5">
+        <f>S5</f>
+        <v>42.584499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3162.2776600000002</v>
       </c>
@@ -3721,7 +3804,7 @@
         <v>45.5944</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3981.0717060000002</v>
       </c>
@@ -3735,7 +3818,7 @@
         <v>45.5944</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5011.8723360000004</v>
       </c>
@@ -3749,7 +3832,7 @@
         <v>45.5944</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6309.573445</v>
       </c>
@@ -3770,7 +3853,7 @@
         <v>45.594299999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7943.2823470000003</v>
       </c>
@@ -3791,7 +3874,7 @@
         <v>45.594200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10000</v>
       </c>
@@ -3812,7 +3895,7 @@
         <v>45.594000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12589.25412</v>
       </c>
@@ -3826,7 +3909,7 @@
         <v>45.593800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>15848.931920000001</v>
       </c>
@@ -3840,7 +3923,7 @@
         <v>45.593400000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19952.623149999999</v>
       </c>
@@ -3854,7 +3937,7 @@
         <v>45.592700000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25118.864320000001</v>
       </c>
@@ -3868,7 +3951,7 @@
         <v>45.591700000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31622.776600000001</v>
       </c>

--- a/ачх.xlsx
+++ b/ачх.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\гит\eltech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFE65A-B3E9-48DF-8CB7-FE8C65EFB564}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1128B2-9314-40D8-A00E-C761AB536BFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{5572788C-06B8-44C7-8394-B28A780DB3F3}"/>
   </bookViews>
@@ -777,13 +777,461 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2294251748997324E-2"/>
+          <c:y val="4.0029112081513829E-2"/>
+          <c:w val="0.62547954355167967"/>
+          <c:h val="0.91994177583697234"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>АЧХ ОУ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A:$A</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1258.9254120000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1584.893192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995.2623149999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2511.8864319999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3162.2776600000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3981.0717060000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5011.8723360000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6309.573445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7943.2823470000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12589.25412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15848.931920000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19952.623149999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25118.864320000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31622.776600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39810.717060000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50118.723360000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63095.734450000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79432.823470000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>125892.54120000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158489.3192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199526.23149999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>251188.64319999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316227.766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>398107.17060000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>501187.23359999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>630957.34450000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>794328.23470000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1258925.412</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1584893.192</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1995262.3149999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2511886.432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3162277.66</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3981071.7059999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5011872.3360000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6309573.4450000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7943282.3470000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12589254.119999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15848931.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19952623.149999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25118864.32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31622776.600000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39810717.060000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50118723.359999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63095734.450000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>79432823.469999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>125892541.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>158489319.19999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199526231.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>251188643.19999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>316227766</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>398107170.60000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>501187233.60000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>630957344.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>794328234.70000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1258925412</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1584893192</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1995262315</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2511886432</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B:$B</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>72.039199999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.036299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.033500000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.028999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.022000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.010800000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.993200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.965500000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.921899999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.853700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.747699999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.584800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>71.3386</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.974999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.454499999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69.739400000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68.803100000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>67.638999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66.263499999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.709299999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.016199999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.221600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>59.356400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.4437</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.499699999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.535400000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.558100000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>49.572600000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47.581899999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.587899999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43.591900000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.594900000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.597299999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.599899999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.603000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.607300000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.613700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.623100000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27.637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.656700000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23.683499999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21.717199999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.756</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.795400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.8293</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.8513</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.8559</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.8372600000000006</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.7881600000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6974600000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5482</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3158300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.0321</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.5337299999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.2264499999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.1370699999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-12.272399999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-15.6157</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-19.131799999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-22.776199999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-26.5029</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-30.268699999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-34.032400000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-37.752899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6419-4933-8516-FDC2BEBCE82B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>АЧХ рассчитанного усилителя</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1247,58 +1695,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$S$4:$T$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$S$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>42.584499999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.584499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B34-4CF2-A231-6E93865B7E0D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1313,452 +1709,11 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Лист1!$A:$A</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1258.9254120000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1584.893192</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1995.2623149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>2511.8864319999998</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>3162.2776600000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>3981.0717060000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>5011.8723360000004</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>6309.573445</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>7943.2823470000003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12589.25412</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>15848.931920000001</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>19952.623149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>25118.864320000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>31622.776600000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>39810.717060000003</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>50118.723360000004</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>63095.734450000004</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>79432.823470000003</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>100000</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>125892.54120000001</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>158489.3192</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>199526.23149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>251188.64319999999</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>316227.766</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>398107.17060000001</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>501187.23359999998</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>630957.34450000001</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>794328.23470000003</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>1000000</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>1258925.412</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>1584893.192</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>1995262.3149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>2511886.432</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>3162277.66</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>3981071.7059999998</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>5011872.3360000001</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>6309573.4450000003</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>7943282.3470000001</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>10000000</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>12589254.119999999</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>15848931.92</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>19952623.149999999</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>25118864.32</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>31622776.600000001</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>39810717.060000002</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>50118723.359999999</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>63095734.450000003</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>79432823.469999999</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>100000000</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>125892541.2</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>158489319.19999999</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>199526231.5</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>251188643.19999999</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>316227766</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>398107170.60000002</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>501187233.60000002</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>630957344.5</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>794328234.70000005</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>1000000000</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>1258925412</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>1584893192</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>1995262315</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>2511886432</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Лист1!$B:$B</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>72.039199999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>72.037999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>72.036299999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>72.033500000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>72.028999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>72.022000000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>72.010800000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>71.993200000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>71.965500000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>71.921899999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>71.853700000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>71.747699999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>71.584800000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>71.3386</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70.974999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>70.454499999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>69.739400000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>68.803100000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>67.638999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>66.263499999999993</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>64.709299999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>63.016199999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>61.221600000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>59.356400000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>57.4437</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>55.499699999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>53.535400000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>51.558100000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>49.572600000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>47.581899999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>45.587899999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>43.591900000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>41.594900000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>39.597299999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>37.599899999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>35.603000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>33.607300000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>31.613700000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>29.623100000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>27.637</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>25.656700000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>23.683499999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>21.717199999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>19.756</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>17.795400000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>15.8293</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>13.8513</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>11.8559</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>9.8372600000000006</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>7.7881600000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>5.6974600000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>3.5482</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>1.3158300000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>-1.0321</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>-3.5337299999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>-6.2264499999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>-9.1370699999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>-12.272399999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>-15.6157</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>-19.131799999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>-22.776199999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>-26.5029</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>-30.268699999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>-34.032400000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>-37.752899999999997</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-6419-4933-8516-FDC2BEBCE82B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
                 <c:idx val="1"/>
                 <c:order val="1"/>
+                <c:tx>
+                  <c:v>20 дБ/дек</c:v>
+                </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
@@ -1773,8 +1728,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$D$3:$D$5</c15:sqref>
                         </c15:formulaRef>
@@ -1797,8 +1752,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$E$3:$E$5</c15:sqref>
                         </c15:formulaRef>
@@ -1820,7 +1775,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-654B-4CBB-A6E3-CAC3609B0434}"/>
                   </c:ext>
@@ -1831,6 +1786,9 @@
               <c15:ser>
                 <c:idx val="2"/>
                 <c:order val="2"/>
+                <c:tx>
+                  <c:v>40 дБ/дек</c:v>
+                </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
@@ -1903,6 +1861,9 @@
               <c15:ser>
                 <c:idx val="3"/>
                 <c:order val="3"/>
+                <c:tx>
+                  <c:v>Частота среза</c:v>
+                </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
@@ -1965,6 +1926,72 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$S$4:$T$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2000000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$S$5:$T$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>42.584499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>42.584499999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-5B34-4CF2-A231-6E93865B7E0D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
           </c:ext>
         </c:extLst>
       </c:scatterChart>
@@ -1973,6 +2000,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="2000000000"/>
           <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2102,6 +2130,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
